--- a/ch-7-r-data-structures.xlsx
+++ b/ch-7-r-data-structures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C89CDB0-8516-46AD-8DD9-3A960A50F904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A027C85-B3A8-4E11-BAB8-7F66842151E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="1" xr2:uid="{E1B868E7-3B7A-4C27-BC73-133B52E39038}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{E1B868E7-3B7A-4C27-BC73-133B52E39038}"/>
   </bookViews>
   <sheets>
     <sheet name="ranges-to-vectors" sheetId="1" r:id="rId1"/>
@@ -507,9 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA8E13-34B3-4C92-B2BB-BB9F7A305D15}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -610,9 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8296B3-5B49-43C4-ACFC-C021C3E4C520}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -659,9 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65BF7B0-6B49-48DF-BE94-B4CFCD4A2AC7}">
   <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="B3:F7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.26171875" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -751,7 +745,7 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="B1:D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
